--- a/myTaxi App Test Cases.xlsx
+++ b/myTaxi App Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohail.khan\Documents\Resume\MyTaxi\Sohail 17th April\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\mtTestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="TestExecution" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestExecution!$A$11:$H$41</definedName>
   </definedNames>
@@ -1145,111 +1142,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,15 +1183,6 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1315,6 +1219,99 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3591,74 +3588,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary "/>
-      <sheetName val="Smoke Checklist"/>
-      <sheetName val="PSM - Worldpay Integration"/>
-      <sheetName val="REST-APIs"/>
-      <sheetName val="Payment-Interface"/>
-      <sheetName val="3D-Secure"/>
-      <sheetName val="Success-Failure"/>
-      <sheetName val="Rough"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Pass</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>OK But</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Fail</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Not Tested</v>
-          </cell>
-          <cell r="D20">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>NA</v>
-          </cell>
-          <cell r="D21">
-            <v>72</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3949,7 +3878,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,248 +3891,248 @@
       <c r="B2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="51">
         <v>43207</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="64"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="33" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="20">
         <f>TestExecution!D3</f>
         <v>27</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="43" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="21">
         <f>TestExecution!D4</f>
         <v>1</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="22">
         <f>TestExecution!D5</f>
         <v>10</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="23">
         <f>TestExecution!D6</f>
         <v>4</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="24">
         <f>TestExecution!D7</f>
         <v>0</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="66" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="26">
         <f>SUM(C12:C16)</f>
         <v>42</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="28">
         <f>(C12/(C12+C13+C14+C15))</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4250,86 +4179,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="20">
         <f>COUNTIF($G:$G,"PASS")</f>
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="21">
         <f>COUNTIF($G:$G,"OK But")</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="22">
         <f>COUNTIF($G:$G,"FAIL")</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="23">
         <f>COUNTIF($G:$G,"Not Tested")</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="24">
         <f>COUNTIF($G:$G,"Not Applicable")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="28">
         <f>(D3/(D3+D4+D5+D6))</f>
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
